--- a/model-inference/decisionTree/experiments/results/epsilon_cpu/epsilon_CPU.xlsx
+++ b/model-inference/decisionTree/experiments/results/epsilon_cpu/epsilon_CPU.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\netsdb\model-inference\decisionTree\experiments\results\epsilon_cpu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C2DB1F-1E19-421C-A3C3-BAF7C885ED24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C419A8C-A9EB-4FA2-A5D8-8CAC486A82BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="1600_trees" sheetId="3" r:id="rId3"/>
     <sheet name="final" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="29">
   <si>
     <t>query size</t>
   </si>
@@ -182,6 +182,7576 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon Randomforest</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$3:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.58531951904234</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138.45878767967176</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.11500358581534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B276-499E-A626-77CB5DA97809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$3:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.18453955650239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.36399722099247</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.09745430946339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B276-499E-A626-77CB5DA97809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$3:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.45616006851154</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.6602272987364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.7725796699514</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B276-499E-A626-77CB5DA97809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$3:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>135.16541457176149</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136.52120757102918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.58031868934563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B276-499E-A626-77CB5DA97809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$3:$A$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$F$3:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.77869868278435</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.97042727470392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.9028847217551</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-B276-499E-A626-77CB5DA97809}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="374262751"/>
+        <c:axId val="374260671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="374262751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374260671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="374260671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="374262751"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon XGBoost</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$9:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>134.32614350318835</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>132.5868201255791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.14905786514228</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$9:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.28603482246362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.17482376098621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.02337503433193</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$9:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>135.75168704986561</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.4110631942747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.5432343482961</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$9:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.37092161178558</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.09552097320534</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.39074349403379</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$F$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$F$9:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>135.44782495498626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>137.6524751186364</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.1758661270139</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$9:$A$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$9:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>130.59900259971579</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.59590911865175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.56247663497848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D642-4A21-B2BA-8681C1676CB6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="417056703"/>
+        <c:axId val="417057535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="417056703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417057535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="417057535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="417056703"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon LightGBM Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$B$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$B$15:$B$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.65683221817</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.99581313133194</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136.21340990066454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$C$15:$C$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>131.35500073432905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>133.96098947525019</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.21747732162402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$D$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$D$15:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.15971398353523</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.02298831939621</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.24200367927503</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$E$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$E$15:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.93143939971833</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.7050261497489</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.44532537460282</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$F$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$F$15:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>135.58937621116544</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.25647878646811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.7802846431731</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$G$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$G$15:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>133.03034639358472</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>134.21509337425192</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>143.14287710189808</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$H$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lleaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$A$15:$A$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$H$15:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>132.88278055190966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>135.00482511520312</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-A0A4-4E27-B8EF-528265E1180B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381140927"/>
+        <c:axId val="381144671"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381140927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381144671"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381144671"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381140927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon Randomfroest Inference</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$3:$M$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>247.21789360046299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1698.68373870849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4987.3955249786304</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A19B-4748-AD0F-EA4CC2F827F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$3:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>588.90128135681096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1785.20274162292</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5552.5572299957203</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A19B-4748-AD0F-EA4CC2F827F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$3:$O$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>871.82688713073696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3324.9580860137899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10026.877880096399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A19B-4748-AD0F-EA4CC2F827F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$3:$P$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>594.33579444885197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2610.75806617736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8024.6753692626899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A19B-4748-AD0F-EA4CC2F827F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$3:$L$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$3:$Q$5</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1084.05494689941</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2049.8950481414699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5530.3037166595404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A19B-4748-AD0F-EA4CC2F827F9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="381149247"/>
+        <c:axId val="381141343"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="381149247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381141343"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="381141343"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="381149247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> XGBoost Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$9:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>603.637218475341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1629.90832328796</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3738.8429641723601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$9:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>546.78106307983398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2431.7715167999199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4161.7038249969401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$9:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>292.88196563720697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3376.9302368163999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10198.9152431488</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$9:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>642.32730865478504</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3108.8991165161101</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7876.4624595641999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$9:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1870.2020645141599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2251.62720680236</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4375.7562637329102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$9:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>756.28066062927201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2752.6257038116401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6228.17039489746</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$S$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lleaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$9:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$S$9:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F52A-43C2-A6FA-E6E00B60FD63}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="407483647"/>
+        <c:axId val="407487391"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="407483647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407487391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407487391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407483647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Epsilon</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> LightGBM Inference</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$M$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Sklearn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$M$15:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>737.96772956848099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2237.8323078155499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6508.1892013549796</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$N$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ONNX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$N$15:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>591.694116592407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1765.4747962951601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4171.3213920593198</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$O$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-Pytorch</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$O$15:$O$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>429.13484573364201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2757.8370571136402</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10085.2239131927</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$P$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$P$15:$P$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>711.33542060852005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3171.9505786895702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7860.6815338134702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$Q$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HB-TVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$Q$15:$Q$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1070.5995559692301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2262.3047828674298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3599.7457504272402</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$R$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TreeLite</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$R$15:$R$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>870.44239044189396</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3202.7859687805098</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8075.8504867553702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>final!$S$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Lleaves</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>final!$L$15:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>final!$S$15:$S$17</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>995.84794044494595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2400.8347988128598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-DECA-455B-8401-540D6A6DDE75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="403689519"/>
+        <c:axId val="403687855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="403689519"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403687855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="403687855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="403689519"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CAAD323-C899-3621-2108-834C4F9028DC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AB0EADE-675A-B664-31A3-8ABFDC21BB58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5F0BBF9-2A13-E50E-3B81-6965ED7BFD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3E701D4-2DF5-7BB6-D5EB-7F7B368F7D67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B8E2199-6078-7692-11F2-0A9AA6928C45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE6AC9AC-3E78-8482-4D88-827C76ECB632}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3418,8 +10988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F3F3BD-93FF-49E8-896D-9239DBBD2D15}">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G73"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9063,11 +16633,11 @@
         <v>8809.8478317260706</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K73" si="2">SUM(E67,G67,H67)</f>
+        <f t="shared" ref="K67:K69" si="2">SUM(E67,G67,H67)</f>
         <v>143142.87710189808</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L73" si="3">PRODUCT(K67,0.001)</f>
+        <f t="shared" ref="L67:L69" si="3">PRODUCT(K67,0.001)</f>
         <v>143.14287710189808</v>
       </c>
     </row>
@@ -9226,20 +16796,23 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B568458-3BD6-4F5A-A3BD-FB3B45FB56B5}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:S17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="V63" sqref="V63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>11</v>
       </c>
@@ -9261,8 +16834,29 @@
       <c r="H2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" t="s">
+        <v>22</v>
+      </c>
+      <c r="P2" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>24</v>
+      </c>
+      <c r="R2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -9286,8 +16880,31 @@
         <f>MIN('10_trees'!L18:'10_trees'!L21)</f>
         <v>132.77869868278435</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="1">
+        <f>MIN('10_trees'!G2:'10_trees'!G5)</f>
+        <v>247.21789360046299</v>
+      </c>
+      <c r="N3" s="1">
+        <f>MIN('10_trees'!G6:'10_trees'!G9)</f>
+        <v>588.90128135681096</v>
+      </c>
+      <c r="O3" s="1">
+        <f>MIN('10_trees'!G10:'10_trees'!G13)</f>
+        <v>871.82688713073696</v>
+      </c>
+      <c r="P3" s="1">
+        <f>MIN('10_trees'!G14:'10_trees'!G17)</f>
+        <v>594.33579444885197</v>
+      </c>
+      <c r="Q3" s="1">
+        <f>MIN('10_trees'!G18:'10_trees'!G21)</f>
+        <v>1084.05494689941</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>500</v>
       </c>
@@ -9311,8 +16928,31 @@
         <f>MIN('500_trees'!L18:'500_trees'!L21)</f>
         <v>134.97042727470392</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L4">
+        <v>500</v>
+      </c>
+      <c r="M4" s="1">
+        <f>MIN('500_trees'!G2:'500_trees'!G5)</f>
+        <v>1698.68373870849</v>
+      </c>
+      <c r="N4" s="1">
+        <f>MIN('500_trees'!G6:'500_trees'!G9)</f>
+        <v>1785.20274162292</v>
+      </c>
+      <c r="O4" s="1">
+        <f>MIN('500_trees'!G10:'500_trees'!G13)</f>
+        <v>3324.9580860137899</v>
+      </c>
+      <c r="P4" s="1">
+        <f>MIN('500_trees'!G14:'500_trees'!G17)</f>
+        <v>2610.75806617736</v>
+      </c>
+      <c r="Q4" s="1">
+        <f>MIN('500_trees'!G18:'500_trees'!G21)</f>
+        <v>2049.8950481414699</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1600</v>
       </c>
@@ -9336,13 +16976,39 @@
         <f>MIN('1600_trees'!L18:'1600_trees'!L21)</f>
         <v>135.9028847217551</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <v>1600</v>
+      </c>
+      <c r="M5" s="1">
+        <f>MIN('1600_trees'!G2:'1600_trees'!G5)</f>
+        <v>4987.3955249786304</v>
+      </c>
+      <c r="N5" s="1">
+        <f>MIN('1600_trees'!G6:'1600_trees'!G9)</f>
+        <v>5552.5572299957203</v>
+      </c>
+      <c r="O5" s="1">
+        <f>MIN('1600_trees'!G10:'1600_trees'!G13)</f>
+        <v>10026.877880096399</v>
+      </c>
+      <c r="P5" s="1">
+        <f>MIN('1600_trees'!G14:'1600_trees'!G17)</f>
+        <v>8024.6753692626899</v>
+      </c>
+      <c r="Q5" s="1">
+        <f>MIN('1600_trees'!G18:'1600_trees'!G21)</f>
+        <v>5530.3037166595404</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>11</v>
       </c>
@@ -9364,8 +17030,29 @@
       <c r="H8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P8" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" t="s">
+        <v>15</v>
+      </c>
+      <c r="S8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>10</v>
       </c>
@@ -9393,8 +17080,35 @@
         <f>MIN('10_trees'!L42:'10_trees'!L45)</f>
         <v>130.59900259971579</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9" s="1">
+        <f>MIN('10_trees'!G22:'10_trees'!G25)</f>
+        <v>603.637218475341</v>
+      </c>
+      <c r="N9" s="1">
+        <f>MIN('10_trees'!G26:'10_trees'!G29)</f>
+        <v>546.78106307983398</v>
+      </c>
+      <c r="O9" s="1">
+        <f>MIN('10_trees'!G30:'10_trees'!G33)</f>
+        <v>292.88196563720697</v>
+      </c>
+      <c r="P9" s="1">
+        <f>MIN('10_trees'!G34:'10_trees'!G37)</f>
+        <v>642.32730865478504</v>
+      </c>
+      <c r="Q9" s="1">
+        <f>MIN('10_trees'!G38:'10_trees'!G41)</f>
+        <v>1870.2020645141599</v>
+      </c>
+      <c r="R9" s="1">
+        <f>MIN('10_trees'!G42:'10_trees'!G45)</f>
+        <v>756.28066062927201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>500</v>
       </c>
@@ -9422,8 +17136,35 @@
         <f>MIN('500_trees'!L42:'500_trees'!L45)</f>
         <v>134.59590911865175</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10" s="1">
+        <f>MIN('500_trees'!G22:'500_trees'!G25)</f>
+        <v>1629.90832328796</v>
+      </c>
+      <c r="N10" s="1">
+        <f>MIN('500_trees'!G26:'500_trees'!G29)</f>
+        <v>2431.7715167999199</v>
+      </c>
+      <c r="O10" s="1">
+        <f>MIN('500_trees'!G30:'500_trees'!G33)</f>
+        <v>3376.9302368163999</v>
+      </c>
+      <c r="P10" s="1">
+        <f>MIN('500_trees'!G34:'500_trees'!G37)</f>
+        <v>3108.8991165161101</v>
+      </c>
+      <c r="Q10" s="1">
+        <f>MIN('500_trees'!G38:'500_trees'!G41)</f>
+        <v>2251.62720680236</v>
+      </c>
+      <c r="R10" s="1">
+        <f>MIN('500_trees'!G42:'500_trees'!G45)</f>
+        <v>2752.6257038116401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1600</v>
       </c>
@@ -9451,13 +17192,43 @@
         <f>MIN('1600_trees'!L42:'1600_trees'!L45)</f>
         <v>136.56247663497848</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L11">
+        <v>1600</v>
+      </c>
+      <c r="M11" s="1">
+        <f>MIN('1600_trees'!G22:'1600_trees'!G25)</f>
+        <v>3738.8429641723601</v>
+      </c>
+      <c r="N11" s="1">
+        <f>MIN('1600_trees'!G26:'1600_trees'!G29)</f>
+        <v>4161.7038249969401</v>
+      </c>
+      <c r="O11" s="1">
+        <f>MIN('1600_trees'!G30:'1600_trees'!G33)</f>
+        <v>10198.9152431488</v>
+      </c>
+      <c r="P11" s="1">
+        <f>MIN('1600_trees'!G34:'1600_trees'!G37)</f>
+        <v>7876.4624595641999</v>
+      </c>
+      <c r="Q11" s="1">
+        <f>MIN('1600_trees'!G38:'1600_trees'!G41)</f>
+        <v>4375.7562637329102</v>
+      </c>
+      <c r="R11" s="1">
+        <f>MIN('1600_trees'!G42:'1600_trees'!G45)</f>
+        <v>6228.17039489746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="O13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>11</v>
       </c>
@@ -9479,8 +17250,29 @@
       <c r="H14" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" t="s">
+        <v>22</v>
+      </c>
+      <c r="P14" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>24</v>
+      </c>
+      <c r="R14" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>10</v>
       </c>
@@ -9512,8 +17304,39 @@
         <f>MIN('10_trees'!L70:'10_trees'!L73)</f>
         <v>132.88278055190966</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="1">
+        <f>MIN('10_trees'!G46:'10_trees'!G49)</f>
+        <v>737.96772956848099</v>
+      </c>
+      <c r="N15" s="1">
+        <f>MIN('10_trees'!G50:'10_trees'!G53)</f>
+        <v>591.694116592407</v>
+      </c>
+      <c r="O15" s="1">
+        <f>MIN('10_trees'!G54:'10_trees'!G57)</f>
+        <v>429.13484573364201</v>
+      </c>
+      <c r="P15" s="1">
+        <f>MIN('10_trees'!G58:'10_trees'!G61)</f>
+        <v>711.33542060852005</v>
+      </c>
+      <c r="Q15" s="1">
+        <f>MIN('10_trees'!G62:'10_trees'!G65)</f>
+        <v>1070.5995559692301</v>
+      </c>
+      <c r="R15" s="1">
+        <f>MIN('10_trees'!G66:'10_trees'!G69)</f>
+        <v>870.44239044189396</v>
+      </c>
+      <c r="S15" s="1">
+        <f>MIN('10_trees'!G70:'10_trees'!G73)</f>
+        <v>995.84794044494595</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>500</v>
       </c>
@@ -9545,8 +17368,39 @@
         <f>MIN('500_trees'!L70:'500_trees'!L73)</f>
         <v>135.00482511520312</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="L16">
+        <v>500</v>
+      </c>
+      <c r="M16" s="1">
+        <f>MIN('500_trees'!G46:'500_trees'!G49)</f>
+        <v>2237.8323078155499</v>
+      </c>
+      <c r="N16" s="1">
+        <f>MIN('500_trees'!G50:'500_trees'!G53)</f>
+        <v>1765.4747962951601</v>
+      </c>
+      <c r="O16" s="1">
+        <f>MIN('500_trees'!G54:'500_trees'!G57)</f>
+        <v>2757.8370571136402</v>
+      </c>
+      <c r="P16" s="1">
+        <f>MIN('500_trees'!G58:'500_trees'!G61)</f>
+        <v>3171.9505786895702</v>
+      </c>
+      <c r="Q16" s="1">
+        <f>MIN('500_trees'!G62:'500_trees'!G65)</f>
+        <v>2262.3047828674298</v>
+      </c>
+      <c r="R16" s="1">
+        <f>MIN('500_trees'!G66:'500_trees'!G69)</f>
+        <v>3202.7859687805098</v>
+      </c>
+      <c r="S16" s="1">
+        <f>MIN('500_trees'!G70:'500_trees'!G73)</f>
+        <v>2400.8347988128598</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1600</v>
       </c>
@@ -9578,9 +17432,41 @@
         <f>MIN('1600_trees'!L70:'1600_trees'!L73)</f>
         <v>0</v>
       </c>
+      <c r="L17">
+        <v>1600</v>
+      </c>
+      <c r="M17" s="1">
+        <f>MIN('1600_trees'!G46:'1600_trees'!G49)</f>
+        <v>6508.1892013549796</v>
+      </c>
+      <c r="N17" s="1">
+        <f>MIN('1600_trees'!G50:'1600_trees'!G53)</f>
+        <v>4171.3213920593198</v>
+      </c>
+      <c r="O17" s="1">
+        <f>MIN('1600_trees'!G54:'1600_trees'!G57)</f>
+        <v>10085.2239131927</v>
+      </c>
+      <c r="P17" s="1">
+        <f>MIN('1600_trees'!G58:'1600_trees'!G61)</f>
+        <v>7860.6815338134702</v>
+      </c>
+      <c r="Q17" s="1">
+        <f>MIN('1600_trees'!G62:'1600_trees'!G65)</f>
+        <v>3599.7457504272402</v>
+      </c>
+      <c r="R17" s="1">
+        <f>MIN('1600_trees'!G66:'1600_trees'!G69)</f>
+        <v>8075.8504867553702</v>
+      </c>
+      <c r="S17" s="1">
+        <f>MIN('1600_trees'!G70:'1600_trees'!G73)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>